--- a/TESTSUITE/TS_DangNhap.xlsx
+++ b/TESTSUITE/TS_DangNhap.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" tabRatio="462" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" tabRatio="462" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_case_list" sheetId="1" r:id="rId1"/>
-    <sheet name="TC_Detail" sheetId="2" r:id="rId2"/>
+    <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
+    <sheet name="Detail" sheetId="2" r:id="rId2"/>
     <sheet name="Object" sheetId="3" r:id="rId3"/>
     <sheet name="Param" sheetId="4" r:id="rId4"/>
     <sheet name="Library" sheetId="5" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="215">
   <si>
     <t>Testcase</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>$TC04_PassValid</t>
-  </si>
-  <si>
-    <t>popUpFail;$TC04_popUpFail</t>
   </si>
   <si>
     <t>$TC04_UserValid</t>
@@ -663,6 +660,30 @@
   <si>
     <t>//*[contains(@class,'lable-fail')]</t>
   </si>
+  <si>
+    <t>Trang chủ</t>
+  </si>
+  <si>
+    <t>popUpFail1</t>
+  </si>
+  <si>
+    <t>popUpFail2</t>
+  </si>
+  <si>
+    <t>popUpFail3</t>
+  </si>
+  <si>
+    <t>popUpFail1;$TC04_popUpFail</t>
+  </si>
+  <si>
+    <t>popUpFail2;$TC04_popUpFail</t>
+  </si>
+  <si>
+    <t>popUpFail3;$TC04_popUpFail</t>
+  </si>
+  <si>
+    <t>popUpFail2;$TC03_popUpFail</t>
+  </si>
 </sst>
 </file>
 
@@ -767,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -827,22 +848,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1142,7 +1151,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1252,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD90"/>
+  <dimension ref="A1:XFD82"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8"/>
@@ -1418,7 +1427,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" ht="33.6">
+    <row r="10" spans="1:7">
       <c r="A10" s="19"/>
       <c r="B10" s="19" t="s">
         <v>45</v>
@@ -1570,7 +1579,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:16384" ht="33.6">
+    <row r="20" spans="1:16384">
       <c r="A20" s="19"/>
       <c r="B20" s="19" t="s">
         <v>62</v>
@@ -1587,7 +1596,7 @@
     </row>
     <row r="21" spans="1:16384" ht="67.2">
       <c r="A21" s="10" t="str">
-        <f>Test_case_list!A4</f>
+        <f>ListTestcase!A4</f>
         <v>TC_03_DangNhapKhongThanhCong_BoTrongTruongDL</v>
       </c>
       <c r="B21" s="19"/>
@@ -18053,7 +18062,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:16384" ht="33.6">
+    <row r="27" spans="1:16384">
       <c r="A27" s="19"/>
       <c r="B27" s="19" t="s">
         <v>62</v>
@@ -34520,7 +34529,7 @@
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="G32" s="19"/>
     </row>
@@ -34534,14 +34543,14 @@
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="50.4">
       <c r="A34" s="10" t="str">
-        <f>Test_case_list!A5</f>
+        <f>ListTestcase!A5</f>
         <v>TC_04_DangNhapKhongThanhCong</v>
       </c>
       <c r="C34" s="14" t="s">
@@ -34629,7 +34638,7 @@
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="G39" s="19"/>
     </row>
@@ -34643,7 +34652,7 @@
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -34660,7 +34669,7 @@
         <v>36</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -34677,7 +34686,7 @@
         <v>39</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -34725,7 +34734,7 @@
       </c>
       <c r="E45" s="19"/>
       <c r="F45" s="19" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="G45" s="19"/>
     </row>
@@ -34739,7 +34748,7 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -34773,7 +34782,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -34821,7 +34830,7 @@
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="19" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="G51" s="19"/>
     </row>
@@ -34835,14 +34844,14 @@
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" ht="33.6">
       <c r="A53" s="10" t="str">
-        <f>Test_case_list!A6</f>
+        <f>ListTestcase!A6</f>
         <v>TC_05_DangNhapVoiGoogle</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -34890,13 +34899,13 @@
     <row r="56" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
@@ -34920,7 +34929,7 @@
     <row r="58" spans="1:7" ht="33.6">
       <c r="A58" s="19"/>
       <c r="B58" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>46</v>
@@ -34928,7 +34937,7 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G58" s="19"/>
     </row>
@@ -34942,7 +34951,7 @@
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -34950,13 +34959,15 @@
     <row r="60" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="14"/>
       <c r="B60" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
     </row>
@@ -34978,10 +34989,10 @@
     <row r="62" spans="1:7">
       <c r="A62" s="19"/>
       <c r="B62" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>39</v>
@@ -34992,7 +35003,7 @@
     </row>
     <row r="63" spans="1:7" ht="50.4">
       <c r="A63" s="10" t="str">
-        <f>Test_case_list!A7</f>
+        <f>ListTestcase!A7</f>
         <v>TC_06_DangNhapVoiFacebook</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -35040,13 +35051,13 @@
     <row r="66" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -35070,7 +35081,7 @@
     <row r="68" spans="1:7" ht="33.6">
       <c r="A68" s="19"/>
       <c r="B68" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>46</v>
@@ -35078,7 +35089,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G68" s="19"/>
     </row>
@@ -35092,7 +35103,7 @@
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -35100,13 +35111,15 @@
     <row r="70" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+      <c r="E70" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
     </row>
@@ -35128,10 +35141,10 @@
     <row r="72" spans="1:7">
       <c r="A72" s="19"/>
       <c r="B72" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>39</v>
@@ -35142,7 +35155,7 @@
     </row>
     <row r="73" spans="1:7" ht="50.4">
       <c r="A73" s="22" t="str">
-        <f>Test_case_list!A8</f>
+        <f>ListTestcase!A8</f>
         <v>TC_07_DangNhap_QuenMatKhau</v>
       </c>
       <c r="C73" s="14" t="s">
@@ -35190,13 +35203,13 @@
     <row r="76" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
@@ -35220,7 +35233,7 @@
     <row r="78" spans="1:7" ht="33.6">
       <c r="A78" s="19"/>
       <c r="B78" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="19" t="s">
         <v>46</v>
@@ -35228,7 +35241,7 @@
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" s="19"/>
     </row>
@@ -35242,7 +35255,7 @@
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -35250,13 +35263,15 @@
     <row r="80" spans="1:7" s="17" customFormat="1" ht="16.5" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
+      <c r="E80" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
     </row>
@@ -35278,10 +35293,10 @@
     <row r="82" spans="1:7">
       <c r="A82" s="19"/>
       <c r="B82" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>39</v>
@@ -35289,78 +35304,6 @@
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="19"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="19"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="19"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="19"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35372,8 +35315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -35386,79 +35329,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.8">
       <c r="A2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>200</v>
+      <c r="B2" s="30" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.8">
       <c r="A3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>201</v>
+      <c r="B3" s="30" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.8">
       <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>202</v>
+      <c r="B4" s="30" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.8">
       <c r="A5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>206</v>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.8">
       <c r="A6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>207</v>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.8">
       <c r="A7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>203</v>
+        <v>70</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8">
       <c r="A8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>204</v>
+        <v>78</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8">
       <c r="A9" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>205</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -35468,289 +35411,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="32.44140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:2" s="24" customFormat="1">
+      <c r="A2" s="14" t="s">
         <v>90</v>
       </c>
+      <c r="B2" s="27" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" s="26" customFormat="1">
-      <c r="A2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="3" spans="1:2" s="24" customFormat="1">
+      <c r="A3" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="26" customFormat="1">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="33" t="s">
         <v>96</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="33"/>
+        <v>97</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="33" t="s">
         <v>100</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>102</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="27"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="24"/>
-      <c r="B19" s="28"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="27"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="24"/>
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="27"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="27"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="27"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="27"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="24"/>
-      <c r="B33" s="28"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="27"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="27"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="27"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="27"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="28"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="27"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="27"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="27"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="27"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="27"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="27"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="28"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="27"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="27"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="23"/>
-      <c r="B50" s="27"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="27"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="28"/>
-      <c r="B52" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35778,393 +35579,393 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6">
       <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="86.4">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8">
       <c r="A7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8">
       <c r="A13" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="86.4">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8">
       <c r="A17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57.6">
       <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8">
       <c r="A19" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8">
       <c r="A21" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8">
       <c r="A25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/TESTSUITE/TS_DangNhap.xlsx
+++ b/TESTSUITE/TS_DangNhap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12780" tabRatio="462" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13940" tabRatio="462" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
   <si>
     <t>Testcase</t>
   </si>
@@ -215,13 +215,13 @@
     <t>popUpFail;$TC02_popUpFail</t>
   </si>
   <si>
-    <t>popUpFail;$TC03_popUpFail</t>
+    <t>popUpFail;$TC03_popUpFailUser</t>
   </si>
   <si>
     <t>popUpFail2</t>
   </si>
   <si>
-    <t>popUpFail2;$TC03_popUpFail</t>
+    <t>popUpFail2;$TC03_popUpFailPass</t>
   </si>
   <si>
     <t>$TC04_UserInvalid</t>
@@ -233,7 +233,7 @@
     <t>popUpFail1</t>
   </si>
   <si>
-    <t>popUpFail1;$TC04_popUpFail</t>
+    <t>popUpFail1;$TC04_popUpFail1</t>
   </si>
   <si>
     <t>$TC04_UserValid</t>
@@ -242,13 +242,13 @@
     <t>$TC04_PassInvalid</t>
   </si>
   <si>
-    <t>popUpFail2;$TC04_popUpFail</t>
+    <t>popUpFail2;$TC04_popUpFail2</t>
   </si>
   <si>
     <t>popUpFail3</t>
   </si>
   <si>
-    <t>popUpFail3;$TC04_popUpFail</t>
+    <t>popUpFail3;$TC04_popUpFail1</t>
   </si>
   <si>
     <t>Nhấn Đăng nhập với Google</t>
@@ -320,16 +320,16 @@
     <t>//li[contains(@class,'dropdown user user-menu')]//span</t>
   </si>
   <si>
-    <t>//*[contains(@class,'lable-fail')]</t>
+    <t>//div[@class='validation-summary-errors text-danger']//li</t>
   </si>
   <si>
-    <t>logingoogle</t>
+    <t>//*[@class='btn btn-google btn-user btn-block']</t>
   </si>
   <si>
-    <t>loginfacebook</t>
+    <t>//*[@class='btn btn-facebook btn-user btn-block']</t>
   </si>
   <si>
-    <t>forgotpassword</t>
+    <t>//*[contains(text(),'Forgot Password?')]</t>
   </si>
   <si>
     <t>Name</t>
@@ -371,16 +371,22 @@
     <t>TC00_userName</t>
   </si>
   <si>
-    <t>Tran Tien Manh</t>
+    <t>Tran Tiên Manh</t>
   </si>
   <si>
     <t>TC02_popUpFail</t>
   </si>
   <si>
-    <t>Vui lòng nhập Tên đăng nhập và mật khẩu</t>
+    <t>Enter a valid username!</t>
   </si>
   <si>
-    <t>TC03_popUpFail</t>
+    <t>TC03_popUpFailUser</t>
+  </si>
+  <si>
+    <t>TC03_popUpFailPass</t>
+  </si>
+  <si>
+    <t>Enter a valid password!</t>
   </si>
   <si>
     <t>TC04_UserInvalid</t>
@@ -392,9 +398,6 @@
     <t>TC04_PassValid</t>
   </si>
   <si>
-    <t>baobao</t>
-  </si>
-  <si>
     <t>TC04_PassInvalid</t>
   </si>
   <si>
@@ -404,13 +407,16 @@
     <t>TC04_UserValid</t>
   </si>
   <si>
-    <t>bao123</t>
+    <t>TC04_popUpFail1</t>
   </si>
   <si>
-    <t>TC04_popUpFail</t>
+    <t>Tài khoản không tồn tại!</t>
   </si>
   <si>
-    <t>Tên đăng nhập</t>
+    <t>TC04_popUpFail2</t>
+  </si>
+  <si>
+    <t>Mật khẩu không khớp!</t>
   </si>
   <si>
     <t>TC05_titleGoogle</t>
@@ -428,7 +434,7 @@
     <t>TC07_titleForgotPassword</t>
   </si>
   <si>
-    <t>Forgot password</t>
+    <t>Forgot Password</t>
   </si>
   <si>
     <t>function</t>
@@ -466,7 +472,7 @@
     <t>click vào 1 đối tượng trên màn hình</t>
   </si>
   <si>
-    <t>type(Object locator, String value, boolean validate, boolean...clear)</t>
+    <t>setText(Object locator, String value, boolean validate, boolean...clear)</t>
   </si>
   <si>
     <t>- Object: đối tượng được input text
@@ -700,9 +706,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -746,24 +752,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,18 +767,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -815,8 +805,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,7 +823,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,13 +845,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -854,29 +882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,19 +921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +957,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,13 +987,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,13 +1053,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,103 +1095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,21 +1133,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1167,15 +1158,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1193,16 +1199,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,145 +1224,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,8 +1888,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="15.2"/>
@@ -35469,7 +35475,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" ht="31" spans="1:5">
+    <row r="53" ht="31" spans="1:7">
       <c r="A53" s="7" t="str">
         <f>ListTestcase!A6</f>
         <v>TC_05_DangNhapVoiGoogle</v>
@@ -35481,6 +35487,8 @@
       <c r="E53" s="9" t="s">
         <v>30</v>
       </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A54" s="23"/>
@@ -35937,8 +35945,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -36003,27 +36011,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" ht="16" spans="1:2">
+    <row r="7" ht="16" spans="1:3">
       <c r="A7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" ht="16" spans="1:2">
+    <row r="8" ht="16" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" ht="16" spans="1:2">
+    <row r="9" ht="16" spans="1:3">
       <c r="A9" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -36036,10 +36047,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="15.2" outlineLevelCol="1"/>
@@ -36130,7 +36141,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" ht="16" spans="1:2">
+    <row r="11" s="5" customFormat="1" ht="16" spans="1:2">
       <c r="A11" s="13" t="s">
         <v>123</v>
       </c>
@@ -36143,47 +36154,63 @@
         <v>125</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="16" spans="1:2">
+      <c r="A16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="16" ht="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:2">
       <c r="A17" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="16" spans="1:2">
+      <c r="A18" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="19" ht="16" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -36201,7 +36228,7 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -36217,393 +36244,393 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/TESTSUITE/TS_DangNhap.xlsx
+++ b/TESTSUITE/TS_DangNhap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13940" tabRatio="462" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
   <si>
     <t>Testcase</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>TC_06_DangNhapVoiFacebook</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Trường hợp đăng nhập sai định dạng email</t>
@@ -706,9 +709,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -760,6 +763,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -790,14 +809,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -807,17 +818,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,8 +832,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,24 +855,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,7 +877,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +966,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +1020,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,7 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,13 +1056,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,25 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,43 +1092,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,45 +1136,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1183,17 +1147,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,151 +1168,201 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1773,8 +1776,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="2"/>
@@ -1856,21 +1859,21 @@
         <v>14</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:3">
       <c r="A8" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -1888,7 +1891,7 @@
   <sheetPr/>
   <dimension ref="A1:XFD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1905,40 +1908,40 @@
   <sheetData>
     <row r="1" s="18" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1947,24 +1950,24 @@
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
     <row r="4" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="13"/>
@@ -1977,11 +1980,11 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1989,16 +1992,16 @@
     <row r="6" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A6" s="23"/>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2006,16 +2009,16 @@
     <row r="7" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -2023,13 +2026,13 @@
     <row r="8" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2038,14 +2041,14 @@
     <row r="9" ht="16" spans="1:7">
       <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2053,50 +2056,50 @@
     <row r="10" ht="16" spans="1:7">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="14"/>
     </row>
     <row r="11" ht="31" spans="1:8">
       <c r="A11" s="14"/>
       <c r="B11" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:7">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -2104,11 +2107,11 @@
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2119,11 +2122,11 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -2131,13 +2134,13 @@
     <row r="15" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -2146,13 +2149,13 @@
     <row r="16" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -2161,13 +2164,13 @@
     <row r="17" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2176,14 +2179,14 @@
     <row r="18" ht="16" spans="1:7">
       <c r="A18" s="14"/>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -2191,31 +2194,31 @@
     <row r="19" ht="18" customHeight="1" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" ht="16" spans="1:7">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -2235,13 +2238,13 @@
     <row r="22" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A22" s="23"/>
       <c r="B22" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2250,16 +2253,16 @@
     <row r="23" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2267,13 +2270,13 @@
     <row r="24" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2282,14 +2285,14 @@
     <row r="25" s="19" customFormat="1" ht="16" spans="1:16384">
       <c r="A25" s="14"/>
       <c r="B25" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -18674,31 +18677,31 @@
     <row r="26" ht="18" customHeight="1" spans="1:7">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="14"/>
     </row>
     <row r="27" ht="16" spans="1:7">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -18706,16 +18709,16 @@
     <row r="28" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A28" s="23"/>
       <c r="B28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -18723,13 +18726,13 @@
     <row r="29" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="9"/>
@@ -18738,13 +18741,13 @@
     <row r="30" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -18753,14 +18756,14 @@
     <row r="31" s="19" customFormat="1" ht="16" spans="1:16384">
       <c r="A31" s="14"/>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -35145,31 +35148,31 @@
     <row r="32" ht="18" customHeight="1" spans="1:7">
       <c r="A32" s="14"/>
       <c r="B32" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="14"/>
     </row>
     <row r="33" ht="16" spans="1:7">
       <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -35180,26 +35183,26 @@
         <v>TC_04_DangNhapKhongThanhCong</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A35" s="23"/>
       <c r="B35" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -35207,16 +35210,16 @@
     <row r="36" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -35224,13 +35227,13 @@
     <row r="37" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -35239,14 +35242,14 @@
     <row r="38" ht="16" spans="1:7">
       <c r="A38" s="14"/>
       <c r="B38" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -35254,31 +35257,31 @@
     <row r="39" ht="18" customHeight="1" spans="1:7">
       <c r="A39" s="14"/>
       <c r="B39" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G39" s="14"/>
     </row>
     <row r="40" ht="16" spans="1:7">
       <c r="A40" s="14"/>
       <c r="B40" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -35286,16 +35289,16 @@
     <row r="41" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A41" s="23"/>
       <c r="B41" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -35303,16 +35306,16 @@
     <row r="42" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -35320,13 +35323,13 @@
     <row r="43" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -35335,14 +35338,14 @@
     <row r="44" ht="16" spans="1:7">
       <c r="A44" s="14"/>
       <c r="B44" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -35350,31 +35353,31 @@
     <row r="45" ht="18" customHeight="1" spans="1:7">
       <c r="A45" s="14"/>
       <c r="B45" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G45" s="14"/>
     </row>
     <row r="46" ht="16" spans="1:7">
       <c r="A46" s="14"/>
       <c r="B46" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -35382,16 +35385,16 @@
     <row r="47" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A47" s="23"/>
       <c r="B47" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -35399,16 +35402,16 @@
     <row r="48" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -35416,13 +35419,13 @@
     <row r="49" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -35431,14 +35434,14 @@
     <row r="50" ht="16" spans="1:7">
       <c r="A50" s="14"/>
       <c r="B50" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
@@ -35446,31 +35449,31 @@
     <row r="51" ht="18" customHeight="1" spans="1:7">
       <c r="A51" s="14"/>
       <c r="B51" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G51" s="14"/>
     </row>
     <row r="52" ht="16" spans="1:7">
       <c r="A52" s="14"/>
       <c r="B52" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
@@ -35481,11 +35484,11 @@
         <v>TC_05_DangNhapVoiGoogle</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
@@ -35493,16 +35496,16 @@
     <row r="54" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A54" s="23"/>
       <c r="B54" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -35510,16 +35513,16 @@
     <row r="55" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -35527,13 +35530,13 @@
     <row r="56" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -35542,14 +35545,14 @@
     <row r="57" ht="16" spans="1:7">
       <c r="A57" s="14"/>
       <c r="B57" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
@@ -35557,29 +35560,29 @@
     <row r="58" ht="16" spans="1:7">
       <c r="A58" s="14"/>
       <c r="B58" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G58" s="14"/>
     </row>
     <row r="59" ht="16" spans="1:7">
       <c r="A59" s="14"/>
       <c r="B59" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -35587,14 +35590,14 @@
     <row r="60" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -35602,14 +35605,14 @@
     <row r="61" ht="16" spans="1:7">
       <c r="A61" s="14"/>
       <c r="B61" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
@@ -35617,13 +35620,13 @@
     <row r="62" ht="16" spans="1:7">
       <c r="A62" s="14"/>
       <c r="B62" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
@@ -35635,26 +35638,26 @@
         <v>TC_06_DangNhapVoiFacebook</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A64" s="23"/>
       <c r="B64" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -35662,16 +35665,16 @@
     <row r="65" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -35679,13 +35682,13 @@
     <row r="66" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -35694,14 +35697,14 @@
     <row r="67" ht="16" spans="1:7">
       <c r="A67" s="14"/>
       <c r="B67" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
@@ -35709,29 +35712,29 @@
     <row r="68" ht="16" spans="1:7">
       <c r="A68" s="14"/>
       <c r="B68" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G68" s="14"/>
     </row>
     <row r="69" ht="31" spans="1:7">
       <c r="A69" s="14"/>
       <c r="B69" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
@@ -35739,14 +35742,14 @@
     <row r="70" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
@@ -35754,14 +35757,14 @@
     <row r="71" ht="16" spans="1:7">
       <c r="A71" s="14"/>
       <c r="B71" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -35769,13 +35772,13 @@
     <row r="72" ht="16" spans="1:7">
       <c r="A72" s="14"/>
       <c r="B72" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
@@ -35787,26 +35790,26 @@
         <v>TC_07_DangNhap_QuenMatKhau</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A74" s="23"/>
       <c r="B74" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -35814,16 +35817,16 @@
     <row r="75" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -35831,13 +35834,13 @@
     <row r="76" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -35846,14 +35849,14 @@
     <row r="77" ht="16" spans="1:7">
       <c r="A77" s="14"/>
       <c r="B77" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -35861,29 +35864,29 @@
     <row r="78" ht="31" spans="1:7">
       <c r="A78" s="14"/>
       <c r="B78" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G78" s="14"/>
     </row>
     <row r="79" ht="31" spans="1:7">
       <c r="A79" s="14"/>
       <c r="B79" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -35891,14 +35894,14 @@
     <row r="80" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -35906,14 +35909,14 @@
     <row r="81" ht="16" spans="1:7">
       <c r="A81" s="14"/>
       <c r="B81" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
@@ -35921,13 +35924,13 @@
     <row r="82" ht="16" spans="1:7">
       <c r="A82" s="14"/>
       <c r="B82" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
@@ -35959,83 +35962,83 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="16" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:3">
       <c r="A6" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -36063,154 +36066,154 @@
   <sheetData>
     <row r="1" ht="16" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="16" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="16" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="16" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:2">
       <c r="A9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="16" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" ht="16" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="16" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -36241,396 +36244,396 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/TESTSUITE/TS_DangNhap.xlsx
+++ b/TESTSUITE/TS_DangNhap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462"/>
+    <workbookView windowWidth="28800" windowHeight="12520" tabRatio="462" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ListTestcase" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
   <si>
     <t>Testcase</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>TC_02_DangNhapKhongThanhCong_BoTrongAll</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">Trường hợp đăng nhập bỏ trống </t>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>TC_06_DangNhapVoiFacebook</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Trường hợp đăng nhập sai định dạng email</t>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>init</t>
@@ -302,7 +299,7 @@
     <t>titleForgotPassword;$TC07_titleForgotPassword</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
   <si>
     <t>id</t>
@@ -333,9 +330,6 @@
   </si>
   <si>
     <t>//*[contains(text(),'Forgot Password?')]</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>Value</t>
@@ -735,14 +729,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -762,55 +748,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,17 +778,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,15 +831,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,8 +861,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,9 +871,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -930,19 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,49 +948,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,72 +996,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1092,13 +1008,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,22 +1125,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,21 +1195,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1201,178 +1204,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1404,7 +1398,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="43" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1415,8 +1408,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1431,24 +1427,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1776,108 +1769,108 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="44.109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="44.78125" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="31.84375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="11.71875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="35.546875" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="16" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16" spans="1:3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:3">
-      <c r="A3" s="28" t="s">
+    <row r="3" ht="31" spans="1:3">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="31" spans="1:3">
-      <c r="A4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>9</v>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="29" t="s">
+    <row r="5" ht="31" spans="1:3">
+      <c r="A5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>11</v>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="16.2" customHeight="1" spans="1:3">
-      <c r="A6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>13</v>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" ht="16" spans="1:3">
-      <c r="A7" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="29" t="s">
+    <row r="7" ht="31" spans="1:3">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1889,10 +1882,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD82"/>
+  <dimension ref="A1:XFC82"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="15.2"/>
@@ -1906,7 +1899,7 @@
     <col min="7" max="16384" width="8.890625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="13.5" customHeight="1" spans="1:7">
+    <row r="1" s="18" customFormat="1" ht="13.5" customHeight="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1919,383 +1912,357 @@
       <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+    </row>
+    <row r="2" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="9"/>
     </row>
-    <row r="2" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+    <row r="3" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:6">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
-    <row r="4" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" s="19" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+    <row r="5" s="19" customFormat="1" ht="33.75" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
     </row>
-    <row r="6" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="6" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A6" s="23"/>
       <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="7" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
     </row>
-    <row r="8" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="8" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
     </row>
-    <row r="9" ht="16" spans="1:7">
-      <c r="A9" s="14"/>
+    <row r="9" ht="16" spans="1:6">
+      <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
-    <row r="10" ht="16" spans="1:7">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" ht="16" spans="1:6">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+    </row>
+    <row r="11" ht="31" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="C11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="11" ht="31" spans="1:8">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
+    <row r="12" ht="16" spans="1:6">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" ht="16" spans="1:6">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
-    <row r="12" ht="16" spans="1:7">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" ht="16" spans="1:7">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" ht="46" spans="1:7">
+    <row r="14" ht="46" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F14" s="13"/>
     </row>
-    <row r="15" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="15" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A15" s="23"/>
       <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
     </row>
-    <row r="16" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="16" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
     </row>
-    <row r="17" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="17" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
     </row>
-    <row r="18" ht="16" spans="1:7">
-      <c r="A18" s="14"/>
+    <row r="18" ht="16" spans="1:6">
+      <c r="A18" s="13"/>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="13"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:7">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" ht="18" customHeight="1" spans="1:6">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
+    </row>
+    <row r="20" ht="16" spans="1:6">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="C20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
-    <row r="20" ht="16" spans="1:7">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" ht="61" spans="1:7">
+    <row r="21" ht="61" spans="1:6">
       <c r="A21" s="7" t="str">
         <f>ListTestcase!A4</f>
         <v>TC_03_DangNhapKhongThanhCong_BoTrongTruongDL</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
-    <row r="22" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="22" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A22" s="23"/>
       <c r="B22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
     </row>
-    <row r="23" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="23" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
     </row>
-    <row r="24" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="24" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
     </row>
-    <row r="25" s="19" customFormat="1" ht="16" spans="1:16384">
-      <c r="A25" s="14"/>
+    <row r="25" s="19" customFormat="1" ht="16" spans="1:16383">
+      <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
@@ -18672,101 +18639,95 @@
       <c r="XFA25" s="24"/>
       <c r="XFB25" s="24"/>
       <c r="XFC25" s="24"/>
-      <c r="XFD25" s="24"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:7">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14" t="s">
+    <row r="26" ht="18" customHeight="1" spans="1:6">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
+    </row>
+    <row r="27" ht="16" spans="1:6">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="13"/>
     </row>
-    <row r="27" ht="16" spans="1:7">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="28" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A28" s="23"/>
       <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
     </row>
-    <row r="29" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="29" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
     </row>
-    <row r="30" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="30" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
     </row>
-    <row r="31" s="19" customFormat="1" ht="16" spans="1:16384">
-      <c r="A31" s="14"/>
+    <row r="31" s="19" customFormat="1" ht="16" spans="1:16383">
+      <c r="A31" s="13"/>
       <c r="B31" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
@@ -35143,39 +35104,36 @@
       <c r="XFA31" s="24"/>
       <c r="XFB31" s="24"/>
       <c r="XFC31" s="24"/>
-      <c r="XFD31" s="24"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:7">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" ht="18" customHeight="1" spans="1:6">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" ht="16" spans="1:6">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" ht="16" spans="1:7">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" ht="31" spans="1:5">
       <c r="A34" s="7" t="str">
@@ -35183,454 +35141,426 @@
         <v>TC_04_DangNhapKhongThanhCong</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="35" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="35" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A35" s="23"/>
       <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
     </row>
-    <row r="36" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="36" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>70</v>
+      <c r="E36" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
     </row>
-    <row r="37" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="37" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
     </row>
-    <row r="38" ht="16" spans="1:7">
-      <c r="A38" s="14"/>
+    <row r="38" ht="16" spans="1:6">
+      <c r="A38" s="13"/>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F38" s="13"/>
     </row>
-    <row r="39" ht="18" customHeight="1" spans="1:7">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" ht="18" customHeight="1" spans="1:6">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" ht="16" spans="1:6">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="F40" s="13"/>
     </row>
-    <row r="40" ht="16" spans="1:7">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="41" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A41" s="23"/>
       <c r="B41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
     </row>
-    <row r="42" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="42" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>74</v>
+      <c r="E42" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
     </row>
-    <row r="43" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="43" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
     </row>
-    <row r="44" ht="16" spans="1:7">
-      <c r="A44" s="14"/>
+    <row r="44" ht="16" spans="1:6">
+      <c r="A44" s="13"/>
       <c r="B44" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F44" s="13"/>
     </row>
-    <row r="45" ht="18" customHeight="1" spans="1:7">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14" t="s">
+    <row r="45" ht="18" customHeight="1" spans="1:6">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="14"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="46" ht="16" spans="1:7">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+    <row r="46" ht="16" spans="1:6">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="13"/>
     </row>
-    <row r="47" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="47" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A47" s="23"/>
       <c r="B47" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="E47" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
     </row>
-    <row r="48" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="48" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>74</v>
+      <c r="E48" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
     </row>
-    <row r="49" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="49" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
     </row>
-    <row r="50" ht="16" spans="1:7">
-      <c r="A50" s="14"/>
+    <row r="50" ht="16" spans="1:6">
+      <c r="A50" s="13"/>
       <c r="B50" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F50" s="13"/>
     </row>
-    <row r="51" ht="18" customHeight="1" spans="1:7">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14" t="s">
+    <row r="51" ht="18" customHeight="1" spans="1:6">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" ht="16" spans="1:6">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="F52" s="13"/>
     </row>
-    <row r="52" ht="16" spans="1:7">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" ht="31" spans="1:7">
+    <row r="53" ht="31" spans="1:6">
       <c r="A53" s="7" t="str">
         <f>ListTestcase!A6</f>
         <v>TC_05_DangNhapVoiGoogle</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F53" s="13"/>
     </row>
-    <row r="54" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="54" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A54" s="23"/>
       <c r="B54" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
     </row>
-    <row r="55" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="55" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="E55" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
     </row>
-    <row r="56" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="56" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
     </row>
-    <row r="57" ht="16" spans="1:7">
-      <c r="A57" s="14"/>
+    <row r="57" ht="16" spans="1:6">
+      <c r="A57" s="13"/>
       <c r="B57" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F57" s="13"/>
     </row>
-    <row r="58" ht="16" spans="1:7">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14" t="s">
+    <row r="58" ht="16" spans="1:6">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14" t="s">
+    </row>
+    <row r="59" ht="16" spans="1:6">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="F59" s="13"/>
     </row>
-    <row r="59" ht="16" spans="1:7">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="60" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
     </row>
-    <row r="61" ht="16" spans="1:7">
-      <c r="A61" s="14"/>
+    <row r="61" ht="16" spans="1:6">
+      <c r="A61" s="13"/>
       <c r="B61" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F61" s="13"/>
     </row>
-    <row r="62" ht="16" spans="1:7">
-      <c r="A62" s="14"/>
+    <row r="62" ht="16" spans="1:6">
+      <c r="A62" s="13"/>
       <c r="B62" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="D62" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" ht="31" spans="1:5">
       <c r="A63" s="7" t="str">
@@ -35638,151 +35568,142 @@
         <v>TC_06_DangNhapVoiFacebook</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="64" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="64" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A64" s="23"/>
       <c r="B64" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="E64" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
     </row>
-    <row r="65" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="65" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="E65" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
     </row>
-    <row r="66" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="66" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
     </row>
-    <row r="67" ht="16" spans="1:7">
-      <c r="A67" s="14"/>
+    <row r="67" ht="16" spans="1:6">
+      <c r="A67" s="13"/>
       <c r="B67" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F67" s="13"/>
     </row>
-    <row r="68" ht="16" spans="1:7">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14" t="s">
+    <row r="68" ht="16" spans="1:6">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" ht="31" spans="1:6">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G68" s="14"/>
+      <c r="F69" s="13"/>
     </row>
-    <row r="69" ht="31" spans="1:7">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="70" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
     </row>
-    <row r="71" ht="16" spans="1:7">
-      <c r="A71" s="14"/>
+    <row r="71" ht="16" spans="1:6">
+      <c r="A71" s="13"/>
       <c r="B71" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F71" s="13"/>
     </row>
-    <row r="72" ht="16" spans="1:7">
-      <c r="A72" s="14"/>
+    <row r="72" ht="16" spans="1:6">
+      <c r="A72" s="13"/>
       <c r="B72" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="D72" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" ht="31" spans="1:5">
       <c r="A73" s="25" t="str">
@@ -35790,151 +35711,142 @@
         <v>TC_07_DangNhap_QuenMatKhau</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="74" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="74" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A74" s="23"/>
       <c r="B74" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
     </row>
-    <row r="75" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:7">
+    <row r="75" s="19" customFormat="1" ht="17.25" customHeight="1" spans="1:6">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="E75" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E75" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
     </row>
-    <row r="76" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="76" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
     </row>
-    <row r="77" ht="16" spans="1:7">
-      <c r="A77" s="14"/>
+    <row r="77" ht="16" spans="1:6">
+      <c r="A77" s="13"/>
       <c r="B77" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F77" s="13"/>
     </row>
-    <row r="78" ht="31" spans="1:7">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14" t="s">
+    <row r="78" ht="31" spans="1:6">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" ht="31" spans="1:6">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="F79" s="13"/>
     </row>
-    <row r="79" ht="31" spans="1:7">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="80" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
     </row>
-    <row r="81" ht="16" spans="1:7">
-      <c r="A81" s="14"/>
+    <row r="81" ht="16" spans="1:6">
+      <c r="A81" s="13"/>
       <c r="B81" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="F81" s="13"/>
     </row>
-    <row r="82" ht="16" spans="1:7">
-      <c r="A82" s="14"/>
+    <row r="82" ht="16" spans="1:6">
+      <c r="A82" s="13"/>
       <c r="B82" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="D82" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35949,96 +35861,98 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A1" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="42.3359375" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="44.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" ht="16" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>96</v>
       </c>
+      <c r="C2" s="16"/>
     </row>
-    <row r="2" ht="16" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="3" ht="16" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" ht="16" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>98</v>
-      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" ht="16" spans="1:3">
       <c r="A4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="15"/>
       <c r="C5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:3">
-      <c r="A6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="16" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -36052,174 +35966,171 @@
   <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="15.2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.4453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.328125" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.4453125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="8.890625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="16" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="16" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="16" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>114</v>
+      <c r="A5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="16" spans="1:2">
-      <c r="A6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>116</v>
+      <c r="A6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" ht="16" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>118</v>
+      <c r="A7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="16" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" ht="16" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>120</v>
+      <c r="A9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="16" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="16" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>125</v>
+      <c r="A11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" ht="16" spans="1:2">
-      <c r="A12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>114</v>
+      <c r="A12" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" ht="16" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>128</v>
+      <c r="A13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" ht="16" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="16" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="16" spans="1:2">
-      <c r="A17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
+      <c r="A17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18" ht="16" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" ht="16" spans="1:2">
-      <c r="A19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>139</v>
+      <c r="A19" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://113.160.133.144:20201/Admin/Login/Index/"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <headerFooter/>
@@ -36247,393 +36158,393 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" ht="42" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>147</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="84" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>150</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>158</v>
+        <v>155</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>167</v>
+        <v>164</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>168</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="E13" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>181</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" ht="42" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>184</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" ht="70" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>189</v>
+        <v>186</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:5">
       <c r="A17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>193</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:5">
       <c r="A18" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>197</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="E19" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>206</v>
+        <v>203</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>207</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>210</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>216</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
